--- a/data/医疗指标.xlsx
+++ b/data/医疗指标.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>year</t>
   </si>
@@ -47,6 +47,60 @@
   </si>
   <si>
     <t>医疗卫生机构住院病人手术人次(万人次)</t>
+  </si>
+  <si>
+    <t>市场规模:综合医院:中国:年</t>
+  </si>
+  <si>
+    <t>市场规模:整形外科医院:中国:年</t>
+  </si>
+  <si>
+    <t>市场规模:中医院:中国:年</t>
+  </si>
+  <si>
+    <t>市场规模:医疗和兽医仪器制造:中国:年</t>
+  </si>
+  <si>
+    <t>市场规模:医疗器械制造:中国:年</t>
+  </si>
+  <si>
+    <t>市场规模:医疗用品制造业:中国:年</t>
+  </si>
+  <si>
+    <t>市场规模:医药制造:中国:年</t>
+  </si>
+  <si>
+    <t>市场规模:医药原料制造:中国:年</t>
+  </si>
+  <si>
+    <t>市场规模:医学研究:中国:年</t>
+  </si>
+  <si>
+    <t>企业数量:综合医院:中国:年</t>
+  </si>
+  <si>
+    <t>企业数量:整形外科医院:中国:年</t>
+  </si>
+  <si>
+    <t>企业数量:中医院:中国:年</t>
+  </si>
+  <si>
+    <t>企业数量:医疗和兽医仪器制造:中国:年</t>
+  </si>
+  <si>
+    <t>企业数量:医疗器械制造:中国:年</t>
+  </si>
+  <si>
+    <t>企业数量:医疗用品制造业:中国:年</t>
+  </si>
+  <si>
+    <t>企业数量:医药制造:中国:年</t>
+  </si>
+  <si>
+    <t>企业数量:医药原料制造:中国:年</t>
+  </si>
+  <si>
+    <t>企业数量:医学研究:中国:年</t>
   </si>
 </sst>
 </file>
@@ -54,12 +108,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,15 +122,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -84,13 +137,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -105,16 +151,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,41 +173,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -176,9 +191,40 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -197,18 +243,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -221,13 +281,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,7 +341,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,7 +407,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,13 +425,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,13 +455,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,116 +465,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -415,11 +475,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -435,24 +540,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,6 +561,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -483,32 +579,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,154 +592,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -985,10 +1066,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:AC21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I$1:I$1048576"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5"/>
@@ -996,7 +1077,7 @@
     <col min="8" max="8" width="15.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" ht="28.5" spans="1:29">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1030,8 +1111,62 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:29">
       <c r="A2">
         <v>2023</v>
       </c>
@@ -1041,8 +1176,62 @@
       <c r="F2">
         <v>1071000</v>
       </c>
+      <c r="L2" s="1">
+        <v>506.1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>3504.9</v>
+      </c>
+      <c r="N2" s="1">
+        <v>106987</v>
+      </c>
+      <c r="O2" s="1">
+        <v>30118.4</v>
+      </c>
+      <c r="P2" s="1">
+        <v>37669.8</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>54627.4</v>
+      </c>
+      <c r="R2" s="1">
+        <v>191714.4</v>
+      </c>
+      <c r="S2" s="1">
+        <v>139794.8</v>
+      </c>
+      <c r="T2" s="1">
+        <v>17784.3</v>
+      </c>
+      <c r="U2" s="2">
+        <v>12691</v>
+      </c>
+      <c r="V2" s="2">
+        <v>513</v>
+      </c>
+      <c r="W2" s="2">
+        <v>4993</v>
+      </c>
+      <c r="X2" s="2">
+        <v>526</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>456</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>1072</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>1636</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>1460</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>6893</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:29">
       <c r="A3">
         <v>2022</v>
       </c>
@@ -1076,8 +1265,62 @@
       <c r="K3">
         <v>8271.75</v>
       </c>
+      <c r="L3" s="1">
+        <v>478.8</v>
+      </c>
+      <c r="M3" s="1">
+        <v>3160.4</v>
+      </c>
+      <c r="N3" s="1">
+        <v>96471.6</v>
+      </c>
+      <c r="O3" s="1">
+        <v>28514.8</v>
+      </c>
+      <c r="P3" s="1">
+        <v>33942.9</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>51202.7</v>
+      </c>
+      <c r="R3" s="1">
+        <v>185714.1</v>
+      </c>
+      <c r="S3" s="1">
+        <v>129828.7</v>
+      </c>
+      <c r="T3" s="1">
+        <v>16709.3</v>
+      </c>
+      <c r="U3" s="2">
+        <v>12641</v>
+      </c>
+      <c r="V3" s="2">
+        <v>494</v>
+      </c>
+      <c r="W3" s="2">
+        <v>4810</v>
+      </c>
+      <c r="X3" s="2">
+        <v>519</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>436</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>1052</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>1625</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>1444</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>6787</v>
+      </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:29">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -1111,8 +1354,62 @@
       <c r="K4">
         <v>8103.1</v>
       </c>
+      <c r="L4" s="1">
+        <v>474.1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>2865.3</v>
+      </c>
+      <c r="N4" s="1">
+        <v>86677.1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>27378.4</v>
+      </c>
+      <c r="P4" s="1">
+        <v>30020.3</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>50106.2</v>
+      </c>
+      <c r="R4" s="1">
+        <v>197202.4</v>
+      </c>
+      <c r="S4" s="1">
+        <v>122155.9</v>
+      </c>
+      <c r="T4" s="1">
+        <v>15665.6</v>
+      </c>
+      <c r="U4" s="2">
+        <v>12591</v>
+      </c>
+      <c r="V4" s="2">
+        <v>477</v>
+      </c>
+      <c r="W4" s="2">
+        <v>4621</v>
+      </c>
+      <c r="X4" s="2">
+        <v>512</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>415</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>1021</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>1614</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>1427</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>6646</v>
+      </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:29">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -1146,8 +1443,62 @@
       <c r="K5">
         <v>6663.74</v>
       </c>
+      <c r="L5" s="1">
+        <v>419.2</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2623.9</v>
+      </c>
+      <c r="N5" s="1">
+        <v>78419.5</v>
+      </c>
+      <c r="O5" s="1">
+        <v>26144.8</v>
+      </c>
+      <c r="P5" s="1">
+        <v>26333.7</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>54761</v>
+      </c>
+      <c r="R5" s="1">
+        <v>190497.4</v>
+      </c>
+      <c r="S5" s="1">
+        <v>110197.6</v>
+      </c>
+      <c r="T5" s="1">
+        <v>14526.3</v>
+      </c>
+      <c r="U5" s="2">
+        <v>12545</v>
+      </c>
+      <c r="V5" s="2">
+        <v>462</v>
+      </c>
+      <c r="W5" s="2">
+        <v>4426</v>
+      </c>
+      <c r="X5" s="2">
+        <v>504</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>393</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>1601</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>1407</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>6492</v>
+      </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:29">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -1181,8 +1532,62 @@
       <c r="K6">
         <v>6930.44</v>
       </c>
+      <c r="L6" s="1">
+        <v>414.3</v>
+      </c>
+      <c r="M6" s="1">
+        <v>2555.7</v>
+      </c>
+      <c r="N6" s="1">
+        <v>83731.4</v>
+      </c>
+      <c r="O6" s="1">
+        <v>23990.7</v>
+      </c>
+      <c r="P6" s="1">
+        <v>22982.1</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>46834.3</v>
+      </c>
+      <c r="R6" s="1">
+        <v>186351.8</v>
+      </c>
+      <c r="S6" s="1">
+        <v>106728</v>
+      </c>
+      <c r="T6" s="1">
+        <v>13456.7</v>
+      </c>
+      <c r="U6" s="2">
+        <v>12500</v>
+      </c>
+      <c r="V6" s="2">
+        <v>450</v>
+      </c>
+      <c r="W6" s="2">
+        <v>4221</v>
+      </c>
+      <c r="X6" s="2">
+        <v>494</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>370</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>965</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>1585</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>1379</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>6314</v>
+      </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:29">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -1216,8 +1621,62 @@
       <c r="K7">
         <v>6171.58</v>
       </c>
+      <c r="L7" s="1">
+        <v>390.4</v>
+      </c>
+      <c r="M7" s="1">
+        <v>2311</v>
+      </c>
+      <c r="N7" s="1">
+        <v>71889.8</v>
+      </c>
+      <c r="O7" s="1">
+        <v>22745.9</v>
+      </c>
+      <c r="P7" s="1">
+        <v>20438.2</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>44263.6</v>
+      </c>
+      <c r="R7" s="1">
+        <v>176942.2</v>
+      </c>
+      <c r="S7" s="1">
+        <v>107612.4</v>
+      </c>
+      <c r="T7" s="1">
+        <v>12704.6</v>
+      </c>
+      <c r="U7" s="2">
+        <v>12470</v>
+      </c>
+      <c r="V7" s="2">
+        <v>398</v>
+      </c>
+      <c r="W7" s="2">
+        <v>3977</v>
+      </c>
+      <c r="X7" s="2">
+        <v>486</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>352</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>948</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>1565</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>1362</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>6203</v>
+      </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:29">
       <c r="A8">
         <v>2017</v>
       </c>
@@ -1251,8 +1710,62 @@
       <c r="K8">
         <v>5595.71</v>
       </c>
+      <c r="L8" s="1">
+        <v>359.4</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1745.1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>63885.2</v>
+      </c>
+      <c r="O8" s="1">
+        <v>22539.8</v>
+      </c>
+      <c r="P8" s="1">
+        <v>18471.3</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>42455.3</v>
+      </c>
+      <c r="R8" s="1">
+        <v>150021.6</v>
+      </c>
+      <c r="S8" s="1">
+        <v>98677.8</v>
+      </c>
+      <c r="T8" s="1">
+        <v>11949</v>
+      </c>
+      <c r="U8" s="2">
+        <v>12430</v>
+      </c>
+      <c r="V8" s="2">
+        <v>345</v>
+      </c>
+      <c r="W8" s="2">
+        <v>3695</v>
+      </c>
+      <c r="X8" s="2">
+        <v>478</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>334</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>920</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>1540</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>1349</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>6087</v>
+      </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:29">
       <c r="A9">
         <v>2016</v>
       </c>
@@ -1286,8 +1799,62 @@
       <c r="K9">
         <v>5082.2</v>
       </c>
+      <c r="L9" s="1">
+        <v>345</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1296.2</v>
+      </c>
+      <c r="N9" s="1">
+        <v>57919</v>
+      </c>
+      <c r="O9" s="1">
+        <v>22417.7</v>
+      </c>
+      <c r="P9" s="1">
+        <v>16839.6</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>40417.1</v>
+      </c>
+      <c r="R9" s="1">
+        <v>140943.9</v>
+      </c>
+      <c r="S9" s="1">
+        <v>91252.1</v>
+      </c>
+      <c r="T9" s="1">
+        <v>11243.4</v>
+      </c>
+      <c r="U9" s="2">
+        <v>12390</v>
+      </c>
+      <c r="V9" s="2">
+        <v>275</v>
+      </c>
+      <c r="W9" s="2">
+        <v>3462</v>
+      </c>
+      <c r="X9" s="2">
+        <v>469</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>316</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>891</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>1513</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>1334</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>5968</v>
+      </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:29">
       <c r="A10">
         <v>2015</v>
       </c>
@@ -1321,8 +1888,62 @@
       <c r="K10">
         <v>4555.7</v>
       </c>
+      <c r="L10" s="1">
+        <v>330</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1039.8</v>
+      </c>
+      <c r="N10" s="1">
+        <v>50884.4</v>
+      </c>
+      <c r="O10" s="1">
+        <v>21209.7</v>
+      </c>
+      <c r="P10" s="1">
+        <v>15233.6</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>37738.5</v>
+      </c>
+      <c r="R10" s="1">
+        <v>136282.4</v>
+      </c>
+      <c r="S10" s="1">
+        <v>89626.8</v>
+      </c>
+      <c r="T10" s="1">
+        <v>10240.6</v>
+      </c>
+      <c r="U10" s="2">
+        <v>12350</v>
+      </c>
+      <c r="V10" s="2">
+        <v>228</v>
+      </c>
+      <c r="W10" s="2">
+        <v>3267</v>
+      </c>
+      <c r="X10" s="2">
+        <v>460</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>297</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>862</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>1483</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>1317</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>5845</v>
+      </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:29">
       <c r="A11">
         <v>2014</v>
       </c>
@@ -1356,8 +1977,62 @@
       <c r="K11">
         <v>4382.92</v>
       </c>
+      <c r="L11" s="1">
+        <v>303</v>
+      </c>
+      <c r="M11" s="1">
+        <v>839.5</v>
+      </c>
+      <c r="N11" s="1">
+        <v>43146.4</v>
+      </c>
+      <c r="O11" s="1">
+        <v>19380.2</v>
+      </c>
+      <c r="P11" s="1">
+        <v>13450.4</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>32920.5</v>
+      </c>
+      <c r="R11" s="1">
+        <v>127148.3</v>
+      </c>
+      <c r="S11" s="1">
+        <v>83975.9</v>
+      </c>
+      <c r="T11" s="1">
+        <v>9165.7</v>
+      </c>
+      <c r="U11" s="2">
+        <v>12300</v>
+      </c>
+      <c r="V11" s="2">
+        <v>192</v>
+      </c>
+      <c r="W11" s="2">
+        <v>3115</v>
+      </c>
+      <c r="X11" s="2">
+        <v>449</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>278</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>831</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>1451</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>1298</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>5719</v>
+      </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:29">
       <c r="A12">
         <v>2013</v>
       </c>
@@ -1391,8 +2066,62 @@
       <c r="K12">
         <v>3982.76</v>
       </c>
+      <c r="L12" s="1">
+        <v>250.2</v>
+      </c>
+      <c r="M12" s="1">
+        <v>650.3</v>
+      </c>
+      <c r="N12" s="1">
+        <v>36791.4</v>
+      </c>
+      <c r="O12" s="1">
+        <v>16766.2</v>
+      </c>
+      <c r="P12" s="1">
+        <v>11465.4</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>26894.8</v>
+      </c>
+      <c r="R12" s="1">
+        <v>104029.3</v>
+      </c>
+      <c r="S12" s="1">
+        <v>66424.4</v>
+      </c>
+      <c r="T12" s="1">
+        <v>8232.2</v>
+      </c>
+      <c r="U12" s="2">
+        <v>12250</v>
+      </c>
+      <c r="V12" s="2">
+        <v>164</v>
+      </c>
+      <c r="W12" s="2">
+        <v>3015</v>
+      </c>
+      <c r="X12" s="2">
+        <v>437</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>257</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>798</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>1417</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>1274</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>5591</v>
+      </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:29">
       <c r="A13">
         <v>2012</v>
       </c>
@@ -1425,6 +2154,60 @@
       </c>
       <c r="K13">
         <v>3690.25</v>
+      </c>
+      <c r="L13" s="1">
+        <v>216</v>
+      </c>
+      <c r="M13" s="1">
+        <v>483.3</v>
+      </c>
+      <c r="N13" s="1">
+        <v>31381.5</v>
+      </c>
+      <c r="O13" s="1">
+        <v>15335.6</v>
+      </c>
+      <c r="P13" s="1">
+        <v>8982</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>21582.7</v>
+      </c>
+      <c r="R13" s="1">
+        <v>89582.4</v>
+      </c>
+      <c r="S13" s="1">
+        <v>57933.3</v>
+      </c>
+      <c r="T13" s="1">
+        <v>7455.4</v>
+      </c>
+      <c r="U13" s="2">
+        <v>12190</v>
+      </c>
+      <c r="V13" s="2">
+        <v>132</v>
+      </c>
+      <c r="W13" s="2">
+        <v>2889</v>
+      </c>
+      <c r="X13" s="2">
+        <v>424</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>231</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>764</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>1375</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>1256</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>5449</v>
       </c>
     </row>
     <row r="14" spans="1:11">

--- a/data/医疗指标.xlsx
+++ b/data/医疗指标.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>year</t>
   </si>
@@ -49,58 +49,10 @@
     <t>医疗卫生机构住院病人手术人次(万人次)</t>
   </si>
   <si>
-    <t>市场规模:综合医院:中国:年</t>
+    <t>医疗行业市场规模</t>
   </si>
   <si>
-    <t>市场规模:整形外科医院:中国:年</t>
-  </si>
-  <si>
-    <t>市场规模:中医院:中国:年</t>
-  </si>
-  <si>
-    <t>市场规模:医疗和兽医仪器制造:中国:年</t>
-  </si>
-  <si>
-    <t>市场规模:医疗器械制造:中国:年</t>
-  </si>
-  <si>
-    <t>市场规模:医疗用品制造业:中国:年</t>
-  </si>
-  <si>
-    <t>市场规模:医药制造:中国:年</t>
-  </si>
-  <si>
-    <t>市场规模:医药原料制造:中国:年</t>
-  </si>
-  <si>
-    <t>市场规模:医学研究:中国:年</t>
-  </si>
-  <si>
-    <t>企业数量:综合医院:中国:年</t>
-  </si>
-  <si>
-    <t>企业数量:整形外科医院:中国:年</t>
-  </si>
-  <si>
-    <t>企业数量:中医院:中国:年</t>
-  </si>
-  <si>
-    <t>企业数量:医疗和兽医仪器制造:中国:年</t>
-  </si>
-  <si>
-    <t>企业数量:医疗器械制造:中国:年</t>
-  </si>
-  <si>
-    <t>企业数量:医疗用品制造业:中国:年</t>
-  </si>
-  <si>
-    <t>企业数量:医药制造:中国:年</t>
-  </si>
-  <si>
-    <t>企业数量:医药原料制造:中国:年</t>
-  </si>
-  <si>
-    <t>企业数量:医学研究:中国:年</t>
+    <t>医疗行业企业数量</t>
   </si>
 </sst>
 </file>
@@ -108,12 +60,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,8 +80,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Droid Sans Fallback"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,6 +95,29 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,7 +140,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,6 +184,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -181,11 +206,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -196,81 +229,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -281,37 +239,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,31 +401,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,109 +419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,16 +449,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,17 +487,46 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,182 +545,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -744,7 +702,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1066,10 +1024,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC21"/>
+  <dimension ref="A1:AD21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:AE13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5"/>
@@ -1077,7 +1035,7 @@
     <col min="8" max="8" width="15.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.5" spans="1:29">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1117,56 +1075,25 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:30">
       <c r="A2">
         <v>2023</v>
       </c>
@@ -1177,61 +1104,30 @@
         <v>1071000</v>
       </c>
       <c r="L2" s="1">
-        <v>506.1</v>
+        <v>582707.1</v>
       </c>
       <c r="M2" s="1">
-        <v>3504.9</v>
-      </c>
-      <c r="N2" s="1">
-        <v>106987</v>
-      </c>
-      <c r="O2" s="1">
-        <v>30118.4</v>
-      </c>
-      <c r="P2" s="1">
-        <v>37669.8</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>54627.4</v>
-      </c>
-      <c r="R2" s="1">
-        <v>191714.4</v>
-      </c>
-      <c r="S2" s="1">
-        <v>139794.8</v>
-      </c>
-      <c r="T2" s="1">
-        <v>17784.3</v>
-      </c>
-      <c r="U2" s="2">
-        <v>12691</v>
-      </c>
-      <c r="V2" s="2">
-        <v>513</v>
-      </c>
-      <c r="W2" s="2">
-        <v>4993</v>
-      </c>
-      <c r="X2" s="2">
-        <v>526</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>456</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>1072</v>
-      </c>
-      <c r="AA2" s="2">
-        <v>1636</v>
-      </c>
-      <c r="AB2" s="2">
-        <v>1460</v>
-      </c>
-      <c r="AC2" s="2">
-        <v>6893</v>
-      </c>
+        <v>30240</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:30">
       <c r="A3">
         <v>2022</v>
       </c>
@@ -1266,61 +1162,30 @@
         <v>8271.75</v>
       </c>
       <c r="L3" s="1">
-        <v>478.8</v>
+        <v>546023.3</v>
       </c>
       <c r="M3" s="1">
-        <v>3160.4</v>
-      </c>
-      <c r="N3" s="1">
-        <v>96471.6</v>
-      </c>
-      <c r="O3" s="1">
-        <v>28514.8</v>
-      </c>
-      <c r="P3" s="1">
-        <v>33942.9</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>51202.7</v>
-      </c>
-      <c r="R3" s="1">
-        <v>185714.1</v>
-      </c>
-      <c r="S3" s="1">
-        <v>129828.7</v>
-      </c>
-      <c r="T3" s="1">
-        <v>16709.3</v>
-      </c>
-      <c r="U3" s="2">
-        <v>12641</v>
-      </c>
-      <c r="V3" s="2">
-        <v>494</v>
-      </c>
-      <c r="W3" s="2">
-        <v>4810</v>
-      </c>
-      <c r="X3" s="2">
-        <v>519</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>436</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>1052</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>1625</v>
-      </c>
-      <c r="AB3" s="2">
-        <v>1444</v>
-      </c>
-      <c r="AC3" s="2">
-        <v>6787</v>
-      </c>
+        <v>29808</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:30">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -1355,61 +1220,30 @@
         <v>8103.1</v>
       </c>
       <c r="L4" s="1">
-        <v>474.1</v>
+        <v>532545.3</v>
       </c>
       <c r="M4" s="1">
-        <v>2865.3</v>
-      </c>
-      <c r="N4" s="1">
-        <v>86677.1</v>
-      </c>
-      <c r="O4" s="1">
-        <v>27378.4</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30020.3</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>50106.2</v>
-      </c>
-      <c r="R4" s="1">
-        <v>197202.4</v>
-      </c>
-      <c r="S4" s="1">
-        <v>122155.9</v>
-      </c>
-      <c r="T4" s="1">
-        <v>15665.6</v>
-      </c>
-      <c r="U4" s="2">
-        <v>12591</v>
-      </c>
-      <c r="V4" s="2">
-        <v>477</v>
-      </c>
-      <c r="W4" s="2">
-        <v>4621</v>
-      </c>
-      <c r="X4" s="2">
-        <v>512</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>415</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>1021</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>1614</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>1427</v>
-      </c>
-      <c r="AC4" s="2">
-        <v>6646</v>
-      </c>
+        <v>29324</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:30">
       <c r="A5">
         <v>2020</v>
       </c>
@@ -1444,61 +1278,30 @@
         <v>6663.74</v>
       </c>
       <c r="L5" s="1">
-        <v>419.2</v>
+        <v>503923.4</v>
       </c>
       <c r="M5" s="1">
-        <v>2623.9</v>
-      </c>
-      <c r="N5" s="1">
-        <v>78419.5</v>
-      </c>
-      <c r="O5" s="1">
-        <v>26144.8</v>
-      </c>
-      <c r="P5" s="1">
-        <v>26333.7</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>54761</v>
-      </c>
-      <c r="R5" s="1">
-        <v>190497.4</v>
-      </c>
-      <c r="S5" s="1">
-        <v>110197.6</v>
-      </c>
-      <c r="T5" s="1">
-        <v>14526.3</v>
-      </c>
-      <c r="U5" s="2">
-        <v>12545</v>
-      </c>
-      <c r="V5" s="2">
-        <v>462</v>
-      </c>
-      <c r="W5" s="2">
-        <v>4426</v>
-      </c>
-      <c r="X5" s="2">
-        <v>504</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>393</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>1000</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>1601</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>1407</v>
-      </c>
-      <c r="AC5" s="2">
-        <v>6492</v>
-      </c>
+        <v>28830</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:30">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -1533,61 +1336,30 @@
         <v>6930.44</v>
       </c>
       <c r="L6" s="1">
-        <v>414.3</v>
+        <v>487045</v>
       </c>
       <c r="M6" s="1">
-        <v>2555.7</v>
-      </c>
-      <c r="N6" s="1">
-        <v>83731.4</v>
-      </c>
-      <c r="O6" s="1">
-        <v>23990.7</v>
-      </c>
-      <c r="P6" s="1">
-        <v>22982.1</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>46834.3</v>
-      </c>
-      <c r="R6" s="1">
-        <v>186351.8</v>
-      </c>
-      <c r="S6" s="1">
-        <v>106728</v>
-      </c>
-      <c r="T6" s="1">
-        <v>13456.7</v>
-      </c>
-      <c r="U6" s="2">
-        <v>12500</v>
-      </c>
-      <c r="V6" s="2">
-        <v>450</v>
-      </c>
-      <c r="W6" s="2">
-        <v>4221</v>
-      </c>
-      <c r="X6" s="2">
-        <v>494</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>370</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>965</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>1585</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>1379</v>
-      </c>
-      <c r="AC6" s="2">
-        <v>6314</v>
-      </c>
+        <v>28278</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:30">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -1622,61 +1394,30 @@
         <v>6171.58</v>
       </c>
       <c r="L7" s="1">
-        <v>390.4</v>
+        <v>459298.1</v>
       </c>
       <c r="M7" s="1">
-        <v>2311</v>
-      </c>
-      <c r="N7" s="1">
-        <v>71889.8</v>
-      </c>
-      <c r="O7" s="1">
-        <v>22745.9</v>
-      </c>
-      <c r="P7" s="1">
-        <v>20438.2</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>44263.6</v>
-      </c>
-      <c r="R7" s="1">
-        <v>176942.2</v>
-      </c>
-      <c r="S7" s="1">
-        <v>107612.4</v>
-      </c>
-      <c r="T7" s="1">
-        <v>12704.6</v>
-      </c>
-      <c r="U7" s="2">
-        <v>12470</v>
-      </c>
-      <c r="V7" s="2">
-        <v>398</v>
-      </c>
-      <c r="W7" s="2">
-        <v>3977</v>
-      </c>
-      <c r="X7" s="2">
-        <v>486</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>352</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>948</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>1565</v>
-      </c>
-      <c r="AB7" s="2">
-        <v>1362</v>
-      </c>
-      <c r="AC7" s="2">
-        <v>6203</v>
-      </c>
+        <v>27761</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:30">
       <c r="A8">
         <v>2017</v>
       </c>
@@ -1711,61 +1452,30 @@
         <v>5595.71</v>
       </c>
       <c r="L8" s="1">
-        <v>359.4</v>
+        <v>410104.5</v>
       </c>
       <c r="M8" s="1">
-        <v>1745.1</v>
-      </c>
-      <c r="N8" s="1">
-        <v>63885.2</v>
-      </c>
-      <c r="O8" s="1">
-        <v>22539.8</v>
-      </c>
-      <c r="P8" s="1">
-        <v>18471.3</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>42455.3</v>
-      </c>
-      <c r="R8" s="1">
-        <v>150021.6</v>
-      </c>
-      <c r="S8" s="1">
-        <v>98677.8</v>
-      </c>
-      <c r="T8" s="1">
-        <v>11949</v>
-      </c>
-      <c r="U8" s="2">
-        <v>12430</v>
-      </c>
-      <c r="V8" s="2">
-        <v>345</v>
-      </c>
-      <c r="W8" s="2">
-        <v>3695</v>
-      </c>
-      <c r="X8" s="2">
-        <v>478</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>334</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>920</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>1540</v>
-      </c>
-      <c r="AB8" s="2">
-        <v>1349</v>
-      </c>
-      <c r="AC8" s="2">
-        <v>6087</v>
-      </c>
+        <v>27178</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:30">
       <c r="A9">
         <v>2016</v>
       </c>
@@ -1800,61 +1510,30 @@
         <v>5082.2</v>
       </c>
       <c r="L9" s="1">
-        <v>345</v>
+        <v>382674</v>
       </c>
       <c r="M9" s="1">
-        <v>1296.2</v>
-      </c>
-      <c r="N9" s="1">
-        <v>57919</v>
-      </c>
-      <c r="O9" s="1">
-        <v>22417.7</v>
-      </c>
-      <c r="P9" s="1">
-        <v>16839.6</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>40417.1</v>
-      </c>
-      <c r="R9" s="1">
-        <v>140943.9</v>
-      </c>
-      <c r="S9" s="1">
-        <v>91252.1</v>
-      </c>
-      <c r="T9" s="1">
-        <v>11243.4</v>
-      </c>
-      <c r="U9" s="2">
-        <v>12390</v>
-      </c>
-      <c r="V9" s="2">
-        <v>275</v>
-      </c>
-      <c r="W9" s="2">
-        <v>3462</v>
-      </c>
-      <c r="X9" s="2">
-        <v>469</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>316</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>891</v>
-      </c>
-      <c r="AA9" s="2">
-        <v>1513</v>
-      </c>
-      <c r="AB9" s="2">
-        <v>1334</v>
-      </c>
-      <c r="AC9" s="2">
-        <v>5968</v>
-      </c>
+        <v>26618</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:30">
       <c r="A10">
         <v>2015</v>
       </c>
@@ -1889,61 +1568,30 @@
         <v>4555.7</v>
       </c>
       <c r="L10" s="1">
-        <v>330</v>
+        <v>362585.8</v>
       </c>
       <c r="M10" s="1">
-        <v>1039.8</v>
-      </c>
-      <c r="N10" s="1">
-        <v>50884.4</v>
-      </c>
-      <c r="O10" s="1">
-        <v>21209.7</v>
-      </c>
-      <c r="P10" s="1">
-        <v>15233.6</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>37738.5</v>
-      </c>
-      <c r="R10" s="1">
-        <v>136282.4</v>
-      </c>
-      <c r="S10" s="1">
-        <v>89626.8</v>
-      </c>
-      <c r="T10" s="1">
-        <v>10240.6</v>
-      </c>
-      <c r="U10" s="2">
-        <v>12350</v>
-      </c>
-      <c r="V10" s="2">
-        <v>228</v>
-      </c>
-      <c r="W10" s="2">
-        <v>3267</v>
-      </c>
-      <c r="X10" s="2">
-        <v>460</v>
-      </c>
-      <c r="Y10" s="2">
-        <v>297</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>862</v>
-      </c>
-      <c r="AA10" s="2">
-        <v>1483</v>
-      </c>
-      <c r="AB10" s="2">
-        <v>1317</v>
-      </c>
-      <c r="AC10" s="2">
-        <v>5845</v>
-      </c>
+        <v>26109</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:30">
       <c r="A11">
         <v>2014</v>
       </c>
@@ -1978,61 +1626,30 @@
         <v>4382.92</v>
       </c>
       <c r="L11" s="1">
-        <v>303</v>
+        <v>330329.9</v>
       </c>
       <c r="M11" s="1">
-        <v>839.5</v>
-      </c>
-      <c r="N11" s="1">
-        <v>43146.4</v>
-      </c>
-      <c r="O11" s="1">
-        <v>19380.2</v>
-      </c>
-      <c r="P11" s="1">
-        <v>13450.4</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>32920.5</v>
-      </c>
-      <c r="R11" s="1">
-        <v>127148.3</v>
-      </c>
-      <c r="S11" s="1">
-        <v>83975.9</v>
-      </c>
-      <c r="T11" s="1">
-        <v>9165.7</v>
-      </c>
-      <c r="U11" s="2">
-        <v>12300</v>
-      </c>
-      <c r="V11" s="2">
-        <v>192</v>
-      </c>
-      <c r="W11" s="2">
-        <v>3115</v>
-      </c>
-      <c r="X11" s="2">
-        <v>449</v>
-      </c>
-      <c r="Y11" s="2">
-        <v>278</v>
-      </c>
-      <c r="Z11" s="2">
-        <v>831</v>
-      </c>
-      <c r="AA11" s="2">
-        <v>1451</v>
-      </c>
-      <c r="AB11" s="2">
-        <v>1298</v>
-      </c>
-      <c r="AC11" s="2">
-        <v>5719</v>
-      </c>
+        <v>25633</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:30">
       <c r="A12">
         <v>2013</v>
       </c>
@@ -2067,61 +1684,30 @@
         <v>3982.76</v>
       </c>
       <c r="L12" s="1">
-        <v>250.2</v>
+        <v>271504.2</v>
       </c>
       <c r="M12" s="1">
-        <v>650.3</v>
-      </c>
-      <c r="N12" s="1">
-        <v>36791.4</v>
-      </c>
-      <c r="O12" s="1">
-        <v>16766.2</v>
-      </c>
-      <c r="P12" s="1">
-        <v>11465.4</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>26894.8</v>
-      </c>
-      <c r="R12" s="1">
-        <v>104029.3</v>
-      </c>
-      <c r="S12" s="1">
-        <v>66424.4</v>
-      </c>
-      <c r="T12" s="1">
-        <v>8232.2</v>
-      </c>
-      <c r="U12" s="2">
-        <v>12250</v>
-      </c>
-      <c r="V12" s="2">
-        <v>164</v>
-      </c>
-      <c r="W12" s="2">
-        <v>3015</v>
-      </c>
-      <c r="X12" s="2">
-        <v>437</v>
-      </c>
-      <c r="Y12" s="2">
-        <v>257</v>
-      </c>
-      <c r="Z12" s="2">
-        <v>798</v>
-      </c>
-      <c r="AA12" s="2">
-        <v>1417</v>
-      </c>
-      <c r="AB12" s="2">
-        <v>1274</v>
-      </c>
-      <c r="AC12" s="2">
-        <v>5591</v>
-      </c>
+        <v>25203</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:30">
       <c r="A13">
         <v>2012</v>
       </c>
@@ -2156,61 +1742,30 @@
         <v>3690.25</v>
       </c>
       <c r="L13" s="1">
-        <v>216</v>
+        <v>232952.2</v>
       </c>
       <c r="M13" s="1">
-        <v>483.3</v>
-      </c>
-      <c r="N13" s="1">
-        <v>31381.5</v>
-      </c>
-      <c r="O13" s="1">
-        <v>15335.6</v>
-      </c>
-      <c r="P13" s="1">
-        <v>8982</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>21582.7</v>
-      </c>
-      <c r="R13" s="1">
-        <v>89582.4</v>
-      </c>
-      <c r="S13" s="1">
-        <v>57933.3</v>
-      </c>
-      <c r="T13" s="1">
-        <v>7455.4</v>
-      </c>
-      <c r="U13" s="2">
-        <v>12190</v>
-      </c>
-      <c r="V13" s="2">
-        <v>132</v>
-      </c>
-      <c r="W13" s="2">
-        <v>2889</v>
-      </c>
-      <c r="X13" s="2">
-        <v>424</v>
-      </c>
-      <c r="Y13" s="2">
-        <v>231</v>
-      </c>
-      <c r="Z13" s="2">
-        <v>764</v>
-      </c>
-      <c r="AA13" s="2">
-        <v>1375</v>
-      </c>
-      <c r="AB13" s="2">
-        <v>1256</v>
-      </c>
-      <c r="AC13" s="2">
-        <v>5449</v>
-      </c>
+        <v>24710</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:21">
       <c r="A14">
         <v>2011</v>
       </c>
@@ -2244,8 +1799,9 @@
       <c r="K14">
         <v>3272.87</v>
       </c>
+      <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:21">
       <c r="A15">
         <v>2010</v>
       </c>
@@ -2279,8 +1835,9 @@
       <c r="K15">
         <v>2904.34</v>
       </c>
+      <c r="U15" s="1"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:21">
       <c r="A16">
         <v>2009</v>
       </c>
@@ -2308,8 +1865,9 @@
       <c r="I16">
         <v>13256.26</v>
       </c>
+      <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:21">
       <c r="A17">
         <v>2008</v>
       </c>
@@ -2337,8 +1895,9 @@
       <c r="I17">
         <v>11482.81</v>
       </c>
+      <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:21">
       <c r="A18">
         <v>2007</v>
       </c>
@@ -2360,8 +1919,9 @@
       <c r="G18">
         <v>696.4</v>
       </c>
+      <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:21">
       <c r="A19">
         <v>2006</v>
       </c>
@@ -2383,8 +1943,9 @@
       <c r="G19">
         <v>668.1</v>
       </c>
+      <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:21">
       <c r="A20">
         <v>2005</v>
       </c>
@@ -2406,8 +1967,9 @@
       <c r="G20">
         <v>644.72</v>
       </c>
+      <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:21">
       <c r="A21">
         <v>2004</v>
       </c>
@@ -2429,6 +1991,7 @@
       <c r="G21">
         <v>633.3</v>
       </c>
+      <c r="U21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/医疗指标.xlsx
+++ b/data/医疗指标.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>year</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>人均卫生费用(元)</t>
-  </si>
-  <si>
-    <t>医疗卫生机构数(个)</t>
   </si>
   <si>
     <t>卫生人员数(万人)</t>
@@ -60,10 +57,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -87,6 +84,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -95,6 +99,37 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,6 +150,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -124,7 +166,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -140,20 +182,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -168,6 +196,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -176,25 +211,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,30 +226,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -239,13 +236,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,79 +398,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,85 +416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,6 +445,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -463,11 +493,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,201 +542,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1026,8 +1023,8 @@
   <sheetPr/>
   <dimension ref="A1:AD21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:AE13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5"/>
@@ -1066,16 +1063,13 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1"/>
+      <c r="M1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -1100,16 +1094,13 @@
       <c r="B2">
         <v>1020</v>
       </c>
-      <c r="F2">
-        <v>1071000</v>
+      <c r="K2" s="1">
+        <v>582707.1</v>
       </c>
       <c r="L2" s="1">
-        <v>582707.1</v>
-      </c>
-      <c r="M2" s="1">
         <v>30240</v>
       </c>
-      <c r="N2" s="1"/>
+      <c r="M2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -1144,30 +1135,27 @@
         <v>6044.09</v>
       </c>
       <c r="F3">
-        <v>1032918</v>
+        <v>1441.08</v>
       </c>
       <c r="G3">
-        <v>1441.08</v>
+        <v>84.16</v>
       </c>
       <c r="H3">
-        <v>84.16</v>
+        <v>24686.21</v>
       </c>
       <c r="I3">
-        <v>24686.21</v>
+        <v>24484.76</v>
       </c>
       <c r="J3">
-        <v>24484.76</v>
-      </c>
-      <c r="K3">
         <v>8271.75</v>
       </c>
+      <c r="K3" s="1">
+        <v>546023.3</v>
+      </c>
       <c r="L3" s="1">
-        <v>546023.3</v>
-      </c>
-      <c r="M3" s="1">
         <v>29808</v>
       </c>
-      <c r="N3" s="1"/>
+      <c r="M3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -1202,30 +1190,27 @@
         <v>5439.97</v>
       </c>
       <c r="F4">
-        <v>1030935</v>
+        <v>1398.54</v>
       </c>
       <c r="G4">
-        <v>1398.54</v>
+        <v>84.72</v>
       </c>
       <c r="H4">
-        <v>84.72</v>
+        <v>24731.8</v>
       </c>
       <c r="I4">
-        <v>24731.8</v>
+        <v>24642.1</v>
       </c>
       <c r="J4">
-        <v>24642.1</v>
-      </c>
-      <c r="K4">
         <v>8103.1</v>
       </c>
+      <c r="K4" s="1">
+        <v>532545.3</v>
+      </c>
       <c r="L4" s="1">
-        <v>532545.3</v>
-      </c>
-      <c r="M4" s="1">
         <v>29324</v>
       </c>
-      <c r="N4" s="1"/>
+      <c r="M4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -1260,30 +1245,27 @@
         <v>5112.34</v>
       </c>
       <c r="F5">
-        <v>1022922</v>
+        <v>1347.5</v>
       </c>
       <c r="G5">
-        <v>1347.5</v>
+        <v>77.41</v>
       </c>
       <c r="H5">
-        <v>77.41</v>
+        <v>23012.8</v>
       </c>
       <c r="I5">
-        <v>23012.8</v>
+        <v>22980.6</v>
       </c>
       <c r="J5">
-        <v>22980.6</v>
-      </c>
-      <c r="K5">
         <v>6663.74</v>
       </c>
+      <c r="K5" s="1">
+        <v>503923.4</v>
+      </c>
       <c r="L5" s="1">
-        <v>503923.4</v>
-      </c>
-      <c r="M5" s="1">
         <v>28830</v>
       </c>
-      <c r="N5" s="1"/>
+      <c r="M5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -1318,30 +1300,27 @@
         <v>4669.34</v>
       </c>
       <c r="F6">
-        <v>1007579</v>
+        <v>1292.83</v>
       </c>
       <c r="G6">
-        <v>1292.83</v>
+        <v>87.2</v>
       </c>
       <c r="H6">
-        <v>87.2</v>
+        <v>26596.12</v>
       </c>
       <c r="I6">
-        <v>26596.12</v>
+        <v>26502.66</v>
       </c>
       <c r="J6">
-        <v>26502.66</v>
-      </c>
-      <c r="K6">
         <v>6930.44</v>
       </c>
+      <c r="K6" s="1">
+        <v>487045</v>
+      </c>
       <c r="L6" s="1">
-        <v>487045</v>
-      </c>
-      <c r="M6" s="1">
         <v>28278</v>
       </c>
-      <c r="N6" s="1"/>
+      <c r="M6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -1376,30 +1355,27 @@
         <v>4206.74</v>
       </c>
       <c r="F7">
-        <v>997433</v>
+        <v>1230.03</v>
       </c>
       <c r="G7">
-        <v>1230.03</v>
+        <v>83.08</v>
       </c>
       <c r="H7">
-        <v>83.08</v>
+        <v>25454.33</v>
       </c>
       <c r="I7">
-        <v>25454.33</v>
+        <v>25384.66</v>
       </c>
       <c r="J7">
-        <v>25384.66</v>
-      </c>
-      <c r="K7">
         <v>6171.58</v>
       </c>
+      <c r="K7" s="1">
+        <v>459298.1</v>
+      </c>
       <c r="L7" s="1">
-        <v>459298.1</v>
-      </c>
-      <c r="M7" s="1">
         <v>27761</v>
       </c>
-      <c r="N7" s="1"/>
+      <c r="M7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1434,30 +1410,27 @@
         <v>3756.72</v>
       </c>
       <c r="F8">
-        <v>986649</v>
+        <v>1174.9</v>
       </c>
       <c r="G8">
-        <v>1174.9</v>
+        <v>81.83</v>
       </c>
       <c r="H8">
-        <v>81.83</v>
+        <v>24435.88</v>
       </c>
       <c r="I8">
-        <v>24435.88</v>
+        <v>24315.71</v>
       </c>
       <c r="J8">
-        <v>24315.71</v>
-      </c>
-      <c r="K8">
         <v>5595.71</v>
       </c>
+      <c r="K8" s="1">
+        <v>410104.5</v>
+      </c>
       <c r="L8" s="1">
-        <v>410104.5</v>
-      </c>
-      <c r="M8" s="1">
         <v>27178</v>
       </c>
-      <c r="N8" s="1"/>
+      <c r="M8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -1492,30 +1465,27 @@
         <v>3328.61</v>
       </c>
       <c r="F9">
-        <v>983394</v>
+        <v>1117.29</v>
       </c>
       <c r="G9">
-        <v>1117.29</v>
+        <v>79.32</v>
       </c>
       <c r="H9">
-        <v>79.32</v>
+        <v>22727.58</v>
       </c>
       <c r="I9">
-        <v>22727.58</v>
+        <v>22603.64</v>
       </c>
       <c r="J9">
-        <v>22603.64</v>
-      </c>
-      <c r="K9">
         <v>5082.2</v>
       </c>
+      <c r="K9" s="1">
+        <v>382674</v>
+      </c>
       <c r="L9" s="1">
-        <v>382674</v>
-      </c>
-      <c r="M9" s="1">
         <v>26618</v>
       </c>
-      <c r="N9" s="1"/>
+      <c r="M9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1550,30 +1520,27 @@
         <v>2962.18</v>
       </c>
       <c r="F10">
-        <v>983528</v>
+        <v>1069.39</v>
       </c>
       <c r="G10">
-        <v>1069.39</v>
+        <v>76.99</v>
       </c>
       <c r="H10">
-        <v>76.99</v>
+        <v>21053.8</v>
       </c>
       <c r="I10">
-        <v>21053.8</v>
+        <v>20955</v>
       </c>
       <c r="J10">
-        <v>20955</v>
-      </c>
-      <c r="K10">
         <v>4555.7</v>
       </c>
+      <c r="K10" s="1">
+        <v>362585.8</v>
+      </c>
       <c r="L10" s="1">
-        <v>362585.8</v>
-      </c>
-      <c r="M10" s="1">
         <v>26109</v>
       </c>
-      <c r="N10" s="1"/>
+      <c r="M10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -1608,30 +1575,27 @@
         <v>2565.45</v>
       </c>
       <c r="F11">
-        <v>981432</v>
+        <v>1023.42</v>
       </c>
       <c r="G11">
-        <v>1023.42</v>
+        <v>76.02</v>
       </c>
       <c r="H11">
-        <v>76.02</v>
+        <v>20441.18</v>
       </c>
       <c r="I11">
-        <v>20441.18</v>
+        <v>20365.73</v>
       </c>
       <c r="J11">
-        <v>20365.73</v>
-      </c>
-      <c r="K11">
         <v>4382.92</v>
       </c>
+      <c r="K11" s="1">
+        <v>330329.9</v>
+      </c>
       <c r="L11" s="1">
-        <v>330329.9</v>
-      </c>
-      <c r="M11" s="1">
         <v>25633</v>
       </c>
-      <c r="N11" s="1"/>
+      <c r="M11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -1666,30 +1630,27 @@
         <v>2316.23</v>
       </c>
       <c r="F12">
-        <v>974398</v>
+        <v>979.05</v>
       </c>
       <c r="G12">
-        <v>979.05</v>
+        <v>73.14</v>
       </c>
       <c r="H12">
-        <v>73.14</v>
+        <v>19215.46</v>
       </c>
       <c r="I12">
-        <v>19215.46</v>
+        <v>19119.93</v>
       </c>
       <c r="J12">
-        <v>19119.93</v>
-      </c>
-      <c r="K12">
         <v>3982.76</v>
       </c>
+      <c r="K12" s="1">
+        <v>271504.2</v>
+      </c>
       <c r="L12" s="1">
-        <v>271504.2</v>
-      </c>
-      <c r="M12" s="1">
         <v>25203</v>
       </c>
-      <c r="N12" s="1"/>
+      <c r="M12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -1724,30 +1685,27 @@
         <v>2068.76</v>
       </c>
       <c r="F13">
-        <v>950297</v>
+        <v>911.57</v>
       </c>
       <c r="G13">
-        <v>911.57</v>
+        <v>68.88</v>
       </c>
       <c r="H13">
-        <v>68.88</v>
+        <v>17857.1</v>
       </c>
       <c r="I13">
-        <v>17857.1</v>
+        <v>17840.33</v>
       </c>
       <c r="J13">
-        <v>17840.33</v>
-      </c>
-      <c r="K13">
         <v>3690.25</v>
       </c>
+      <c r="K13" s="1">
+        <v>232952.2</v>
+      </c>
       <c r="L13" s="1">
-        <v>232952.2</v>
-      </c>
-      <c r="M13" s="1">
         <v>24710</v>
       </c>
-      <c r="N13" s="1"/>
+      <c r="M13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -1782,21 +1740,18 @@
         <v>1804.52</v>
       </c>
       <c r="F14">
-        <v>954389</v>
+        <v>861.6</v>
       </c>
       <c r="G14">
-        <v>861.6</v>
+        <v>62.71</v>
       </c>
       <c r="H14">
-        <v>62.71</v>
+        <v>15297.65</v>
       </c>
       <c r="I14">
-        <v>15297.65</v>
+        <v>15264.82</v>
       </c>
       <c r="J14">
-        <v>15264.82</v>
-      </c>
-      <c r="K14">
         <v>3272.87</v>
       </c>
       <c r="U14" s="1"/>
@@ -1818,21 +1773,18 @@
         <v>1490.06</v>
       </c>
       <c r="F15">
-        <v>936927</v>
+        <v>820.75</v>
       </c>
       <c r="G15">
-        <v>820.75</v>
+        <v>58.38</v>
       </c>
       <c r="H15">
-        <v>58.38</v>
+        <v>14173.55</v>
       </c>
       <c r="I15">
-        <v>14173.55</v>
+        <v>14137.99</v>
       </c>
       <c r="J15">
-        <v>14137.99</v>
-      </c>
-      <c r="K15">
         <v>2904.34</v>
       </c>
       <c r="U15" s="1"/>
@@ -1854,15 +1806,12 @@
         <v>1314.49</v>
       </c>
       <c r="F16">
-        <v>916571</v>
+        <v>778.1</v>
       </c>
       <c r="G16">
-        <v>778.1</v>
+        <v>54.88</v>
       </c>
       <c r="H16">
-        <v>54.88</v>
-      </c>
-      <c r="I16">
         <v>13256.26</v>
       </c>
       <c r="U16" s="1"/>
@@ -1884,15 +1833,12 @@
         <v>1094.52</v>
       </c>
       <c r="F17">
-        <v>891480</v>
+        <v>725.2</v>
       </c>
       <c r="G17">
-        <v>725.2</v>
+        <v>49.01</v>
       </c>
       <c r="H17">
-        <v>49.01</v>
-      </c>
-      <c r="I17">
         <v>11482.81</v>
       </c>
       <c r="U17" s="1"/>
@@ -1914,9 +1860,6 @@
         <v>875.96</v>
       </c>
       <c r="F18">
-        <v>912263</v>
-      </c>
-      <c r="G18">
         <v>696.4</v>
       </c>
       <c r="U18" s="1"/>
@@ -1938,9 +1881,6 @@
         <v>748.84</v>
       </c>
       <c r="F19">
-        <v>918097</v>
-      </c>
-      <c r="G19">
         <v>668.1</v>
       </c>
       <c r="U19" s="1"/>
@@ -1962,9 +1902,6 @@
         <v>662.3</v>
       </c>
       <c r="F20">
-        <v>882206</v>
-      </c>
-      <c r="G20">
         <v>644.72</v>
       </c>
       <c r="U20" s="1"/>
@@ -1986,9 +1923,6 @@
         <v>583.92</v>
       </c>
       <c r="F21">
-        <v>849140</v>
-      </c>
-      <c r="G21">
         <v>633.3</v>
       </c>
       <c r="U21" s="1"/>

--- a/data/医疗指标.xlsx
+++ b/data/医疗指标.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>year</t>
   </si>
@@ -51,16 +51,19 @@
   <si>
     <t>医疗行业企业数量</t>
   </si>
+  <si>
+    <t>医疗机构数量</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -99,6 +102,61 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,16 +170,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,16 +199,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,9 +214,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,60 +229,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -242,37 +245,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,19 +377,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,115 +419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,6 +461,45 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -479,21 +521,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -504,30 +531,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,142 +550,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -692,7 +695,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -702,6 +705,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1024,7 +1028,7 @@
   <dimension ref="A1:AD21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="M16" sqref="M1:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5"/>
@@ -1069,7 +1073,9 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -1155,7 +1161,9 @@
       <c r="L3" s="1">
         <v>29808</v>
       </c>
-      <c r="M3" s="1"/>
+      <c r="M3" s="3">
+        <v>1457</v>
+      </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -1210,7 +1218,9 @@
       <c r="L4" s="1">
         <v>29324</v>
       </c>
-      <c r="M4" s="1"/>
+      <c r="M4" s="3">
+        <v>1038</v>
+      </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -1265,7 +1275,9 @@
       <c r="L5" s="1">
         <v>28830</v>
       </c>
-      <c r="M5" s="1"/>
+      <c r="M5" s="3">
+        <v>2166</v>
+      </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -1320,7 +1332,9 @@
       <c r="L6" s="1">
         <v>28278</v>
       </c>
-      <c r="M6" s="1"/>
+      <c r="M6" s="3">
+        <v>1453</v>
+      </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -1375,7 +1389,9 @@
       <c r="L7" s="1">
         <v>27761</v>
       </c>
-      <c r="M7" s="1"/>
+      <c r="M7" s="3">
+        <v>1769</v>
+      </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1430,7 +1446,9 @@
       <c r="L8" s="1">
         <v>27178</v>
       </c>
-      <c r="M8" s="1"/>
+      <c r="M8" s="3">
+        <v>1846</v>
+      </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -1485,7 +1503,9 @@
       <c r="L9" s="1">
         <v>26618</v>
       </c>
-      <c r="M9" s="1"/>
+      <c r="M9" s="3">
+        <v>982</v>
+      </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1540,7 +1560,9 @@
       <c r="L10" s="1">
         <v>26109</v>
       </c>
-      <c r="M10" s="1"/>
+      <c r="M10" s="3">
+        <v>717</v>
+      </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -1595,7 +1617,9 @@
       <c r="L11" s="1">
         <v>25633</v>
       </c>
-      <c r="M11" s="1"/>
+      <c r="M11" s="3">
+        <v>330</v>
+      </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -1650,7 +1674,9 @@
       <c r="L12" s="1">
         <v>25203</v>
       </c>
-      <c r="M12" s="1"/>
+      <c r="M12" s="3">
+        <v>-1132</v>
+      </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -1705,7 +1731,9 @@
       <c r="L13" s="1">
         <v>24710</v>
       </c>
-      <c r="M13" s="1"/>
+      <c r="M13" s="1">
+        <v>2107</v>
+      </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>

--- a/data/医疗指标.xlsx
+++ b/data/医疗指标.xlsx
@@ -52,7 +52,7 @@
     <t>医疗行业企业数量</t>
   </si>
   <si>
-    <t>医疗机构数量</t>
+    <t>新增医院数</t>
   </si>
 </sst>
 </file>
@@ -60,10 +60,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -104,6 +104,14 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -115,6 +123,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -123,6 +154,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -133,14 +180,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,29 +202,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -191,17 +216,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,22 +229,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -245,181 +245,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,6 +461,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -476,6 +485,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -498,24 +522,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,158 +545,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1028,7 +1028,7 @@
   <dimension ref="A1:AD21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M1:M16"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5"/>

--- a/data/医疗指标.xlsx
+++ b/data/医疗指标.xlsx
@@ -46,10 +46,10 @@
     <t>医疗卫生机构住院病人手术人次(万人次)</t>
   </si>
   <si>
-    <t>医疗行业市场规模</t>
+    <t>医药制造业市场规模</t>
   </si>
   <si>
-    <t>医疗行业企业数量</t>
+    <t>医药制造业企业数量</t>
   </si>
   <si>
     <t>新增医院数</t>
@@ -60,8 +60,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -76,13 +76,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial Unicode MS"/>
+      <name val="Droid Sans Fallback"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Droid Sans Fallback"/>
+      <name val="Arial Unicode MS"/>
       <charset val="134"/>
     </font>
     <font>
@@ -100,10 +100,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -115,16 +116,93 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,84 +216,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -245,73 +245,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,103 +407,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,7 +461,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,6 +470,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -490,21 +501,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -520,13 +516,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,85 +550,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -637,55 +637,55 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1027,8 +1027,8 @@
   <sheetPr/>
   <dimension ref="A1:AD21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5"/>
@@ -1073,25 +1073,25 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
     </row>
     <row r="2" spans="1:30">
       <c r="A2">
@@ -1100,29 +1100,29 @@
       <c r="B2">
         <v>1020</v>
       </c>
-      <c r="K2" s="1">
-        <v>582707.1</v>
-      </c>
-      <c r="L2" s="1">
-        <v>30240</v>
-      </c>
-      <c r="M2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
+      <c r="K2" s="2">
+        <v>471709.1</v>
+      </c>
+      <c r="L2" s="2">
+        <v>12043</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
     </row>
     <row r="3" spans="1:30">
       <c r="A3">
@@ -1155,31 +1155,31 @@
       <c r="J3">
         <v>8271.75</v>
       </c>
-      <c r="K3" s="1">
-        <v>546023.3</v>
-      </c>
-      <c r="L3" s="1">
-        <v>29808</v>
+      <c r="K3" s="2">
+        <v>445912.5</v>
+      </c>
+      <c r="L3" s="2">
+        <v>11863</v>
       </c>
       <c r="M3" s="3">
         <v>1457</v>
       </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
     </row>
     <row r="4" spans="1:30">
       <c r="A4">
@@ -1212,31 +1212,31 @@
       <c r="J4">
         <v>8103.1</v>
       </c>
-      <c r="K4" s="1">
-        <v>532545.3</v>
-      </c>
-      <c r="L4" s="1">
-        <v>29324</v>
+      <c r="K4" s="2">
+        <v>442528.8</v>
+      </c>
+      <c r="L4" s="2">
+        <v>11635</v>
       </c>
       <c r="M4" s="3">
         <v>1038</v>
       </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
     </row>
     <row r="5" spans="1:30">
       <c r="A5">
@@ -1269,31 +1269,31 @@
       <c r="J5">
         <v>6663.74</v>
       </c>
-      <c r="K5" s="1">
-        <v>503923.4</v>
-      </c>
-      <c r="L5" s="1">
-        <v>28830</v>
+      <c r="K5" s="2">
+        <v>422460.8</v>
+      </c>
+      <c r="L5" s="2">
+        <v>11397</v>
       </c>
       <c r="M5" s="3">
         <v>2166</v>
       </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
     </row>
     <row r="6" spans="1:30">
       <c r="A6">
@@ -1326,31 +1326,31 @@
       <c r="J6">
         <v>6930.44</v>
       </c>
-      <c r="K6" s="1">
-        <v>487045</v>
-      </c>
-      <c r="L6" s="1">
-        <v>28278</v>
+      <c r="K6" s="2">
+        <v>400343.6</v>
+      </c>
+      <c r="L6" s="2">
+        <v>11107</v>
       </c>
       <c r="M6" s="3">
         <v>1453</v>
       </c>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
     </row>
     <row r="7" spans="1:30">
       <c r="A7">
@@ -1383,31 +1383,31 @@
       <c r="J7">
         <v>6171.58</v>
       </c>
-      <c r="K7" s="1">
-        <v>459298.1</v>
-      </c>
-      <c r="L7" s="1">
-        <v>27761</v>
+      <c r="K7" s="2">
+        <v>384706.9</v>
+      </c>
+      <c r="L7" s="2">
+        <v>10916</v>
       </c>
       <c r="M7" s="3">
         <v>1769</v>
       </c>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
     </row>
     <row r="8" spans="1:30">
       <c r="A8">
@@ -1440,31 +1440,31 @@
       <c r="J8">
         <v>5595.71</v>
       </c>
-      <c r="K8" s="1">
-        <v>410104.5</v>
-      </c>
-      <c r="L8" s="1">
-        <v>27178</v>
+      <c r="K8" s="2">
+        <v>344114.8</v>
+      </c>
+      <c r="L8" s="2">
+        <v>10708</v>
       </c>
       <c r="M8" s="3">
         <v>1846</v>
       </c>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
     </row>
     <row r="9" spans="1:30">
       <c r="A9">
@@ -1497,31 +1497,31 @@
       <c r="J9">
         <v>5082.2</v>
       </c>
-      <c r="K9" s="1">
-        <v>382674</v>
-      </c>
-      <c r="L9" s="1">
-        <v>26618</v>
+      <c r="K9" s="2">
+        <v>323113.8</v>
+      </c>
+      <c r="L9" s="2">
+        <v>10491</v>
       </c>
       <c r="M9" s="3">
         <v>982</v>
       </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
     </row>
     <row r="10" spans="1:30">
       <c r="A10">
@@ -1554,31 +1554,31 @@
       <c r="J10">
         <v>4555.7</v>
       </c>
-      <c r="K10" s="1">
-        <v>362585.8</v>
-      </c>
-      <c r="L10" s="1">
-        <v>26109</v>
+      <c r="K10" s="2">
+        <v>310331.6</v>
+      </c>
+      <c r="L10" s="2">
+        <v>10264</v>
       </c>
       <c r="M10" s="3">
         <v>717</v>
       </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
     </row>
     <row r="11" spans="1:30">
       <c r="A11">
@@ -1611,31 +1611,31 @@
       <c r="J11">
         <v>4382.92</v>
       </c>
-      <c r="K11" s="1">
-        <v>330329.9</v>
-      </c>
-      <c r="L11" s="1">
-        <v>25633</v>
+      <c r="K11" s="2">
+        <v>286041</v>
+      </c>
+      <c r="L11" s="2">
+        <v>10026</v>
       </c>
       <c r="M11" s="3">
         <v>330</v>
       </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
     </row>
     <row r="12" spans="1:30">
       <c r="A12">
@@ -1668,31 +1668,31 @@
       <c r="J12">
         <v>3982.76</v>
       </c>
-      <c r="K12" s="1">
-        <v>271504.2</v>
-      </c>
-      <c r="L12" s="1">
-        <v>25203</v>
+      <c r="K12" s="2">
+        <v>233812.3</v>
+      </c>
+      <c r="L12" s="2">
+        <v>9774</v>
       </c>
       <c r="M12" s="3">
         <v>-1132</v>
       </c>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
     </row>
     <row r="13" spans="1:30">
       <c r="A13">
@@ -1725,31 +1725,31 @@
       <c r="J13">
         <v>3690.25</v>
       </c>
-      <c r="K13" s="1">
-        <v>232952.2</v>
-      </c>
-      <c r="L13" s="1">
-        <v>24710</v>
-      </c>
-      <c r="M13" s="1">
+      <c r="K13" s="2">
+        <v>200871.4</v>
+      </c>
+      <c r="L13" s="2">
+        <v>9499</v>
+      </c>
+      <c r="M13" s="2">
         <v>2107</v>
       </c>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14">
@@ -1782,7 +1782,13 @@
       <c r="J14">
         <v>3272.87</v>
       </c>
-      <c r="U14" s="1"/>
+      <c r="K14">
+        <v>172612.9</v>
+      </c>
+      <c r="L14">
+        <v>9193</v>
+      </c>
+      <c r="U14" s="2"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15">
@@ -1815,7 +1821,13 @@
       <c r="J15">
         <v>2904.34</v>
       </c>
-      <c r="U15" s="1"/>
+      <c r="K15">
+        <v>145499.4</v>
+      </c>
+      <c r="L15">
+        <v>8895</v>
+      </c>
+      <c r="U15" s="2"/>
     </row>
     <row r="16" spans="1:21">
       <c r="A16">
@@ -1842,7 +1854,10 @@
       <c r="H16">
         <v>13256.26</v>
       </c>
-      <c r="U16" s="1"/>
+      <c r="L16">
+        <v>8651</v>
+      </c>
+      <c r="U16" s="2"/>
     </row>
     <row r="17" spans="1:21">
       <c r="A17">
@@ -1869,7 +1884,7 @@
       <c r="H17">
         <v>11482.81</v>
       </c>
-      <c r="U17" s="1"/>
+      <c r="U17" s="2"/>
     </row>
     <row r="18" spans="1:21">
       <c r="A18">
@@ -1890,7 +1905,7 @@
       <c r="F18">
         <v>696.4</v>
       </c>
-      <c r="U18" s="1"/>
+      <c r="U18" s="2"/>
     </row>
     <row r="19" spans="1:21">
       <c r="A19">
@@ -1911,7 +1926,7 @@
       <c r="F19">
         <v>668.1</v>
       </c>
-      <c r="U19" s="1"/>
+      <c r="U19" s="2"/>
     </row>
     <row r="20" spans="1:21">
       <c r="A20">
@@ -1932,7 +1947,7 @@
       <c r="F20">
         <v>644.72</v>
       </c>
-      <c r="U20" s="1"/>
+      <c r="U20" s="2"/>
     </row>
     <row r="21" spans="1:21">
       <c r="A21">
@@ -1953,7 +1968,7 @@
       <c r="F21">
         <v>633.3</v>
       </c>
-      <c r="U21" s="1"/>
+      <c r="U21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
